--- a/Documentation/TimeSheets/week7/Kin Leong Lee Week 7time_sheet.xlsx
+++ b/Documentation/TimeSheets/week7/Kin Leong Lee Week 7time_sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -100,10 +100,16 @@
     <t>05::00PM</t>
   </si>
   <si>
-    <t>Study JUNIT Test and create simple test cases</t>
-  </si>
-  <si>
     <t>Name: Kin Leong Lee</t>
+  </si>
+  <si>
+    <t>Create test cases for JUNIT tests</t>
+  </si>
+  <si>
+    <t>9/13/2017</t>
+  </si>
+  <si>
+    <t>9/15/2017</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -307,6 +313,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -702,8 +711,8 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -730,7 +739,7 @@
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -812,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10">
-        <v>42864</v>
+        <v>43078</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
@@ -828,8 +837,8 @@
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10">
-        <v>42925</v>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
@@ -842,11 +851,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10">
-        <v>42956</v>
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>19</v>
